--- a/Connectors/Bosch_M797_pinout.xlsx
+++ b/Connectors/Bosch_M797_pinout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>№</t>
   </si>
@@ -367,14 +367,54 @@
   </si>
   <si>
     <t>V_REF</t>
+  </si>
+  <si>
+    <t>? IN_divided?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>K-LINE</t>
+  </si>
+  <si>
+    <t>STEPPER_A</t>
+  </si>
+  <si>
+    <t>STEPPER_D</t>
+  </si>
+  <si>
+    <t>STEPPER_C</t>
+  </si>
+  <si>
+    <t>STEPPER_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -403,8 +443,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -708,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +1018,9 @@
       <c r="A25">
         <v>23</v>
       </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
       <c r="C25" t="s">
         <v>81</v>
       </c>
@@ -1201,6 +1246,9 @@
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
@@ -1212,6 +1260,9 @@
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -1223,6 +1274,9 @@
       <c r="A48">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
       <c r="C48" t="s">
         <v>83</v>
       </c>
@@ -1248,6 +1302,9 @@
       <c r="A50">
         <v>48</v>
       </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
       <c r="C50" t="s">
         <v>84</v>
       </c>
@@ -1264,6 +1321,9 @@
       <c r="A52">
         <v>50</v>
       </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
       <c r="C52" t="s">
         <v>86</v>
       </c>
@@ -1351,6 +1411,9 @@
       <c r="A61">
         <v>59</v>
       </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
@@ -1397,6 +1460,9 @@
       <c r="A66">
         <v>64</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C66" t="s">
         <v>89</v>
       </c>
@@ -1408,6 +1474,9 @@
       <c r="A67">
         <v>65</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C67" t="s">
         <v>90</v>
       </c>
@@ -1419,6 +1488,9 @@
       <c r="A68">
         <v>66</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C68" t="s">
         <v>91</v>
       </c>
@@ -1430,6 +1502,9 @@
       <c r="A69">
         <v>67</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C69" t="s">
         <v>92</v>
       </c>
@@ -1441,6 +1516,9 @@
       <c r="A70">
         <v>68</v>
       </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
@@ -1452,6 +1530,9 @@
       <c r="A71">
         <v>69</v>
       </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
       <c r="C71" t="s">
         <v>87</v>
       </c>
@@ -1463,6 +1544,9 @@
       <c r="A72">
         <v>70</v>
       </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
       <c r="C72" t="s">
         <v>88</v>
       </c>
@@ -1474,6 +1558,9 @@
       <c r="A73">
         <v>71</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C73" t="s">
         <v>47</v>
       </c>
@@ -1506,6 +1593,9 @@
       <c r="A77">
         <v>75</v>
       </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -1517,6 +1607,9 @@
       <c r="A78">
         <v>76</v>
       </c>
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -1527,6 +1620,9 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
       </c>
       <c r="C79" t="s">
         <v>55</v>
